--- a/data/evaluation/evaluation_North_Spring_Watermelons.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Watermelons.xlsx
@@ -489,13 +489,13 @@
         <v>9864.848484848486</v>
       </c>
       <c r="C3" t="n">
-        <v>133805814.1414142</v>
+        <v>143033450.5050505</v>
       </c>
       <c r="D3" t="n">
-        <v>11567.44631028881</v>
+        <v>11959.65929719783</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1151538922447749</v>
+        <v>0.05413234267657074</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9985.714298832479</v>
+        <v>9965.296806224076</v>
       </c>
       <c r="C4" t="n">
-        <v>141394675.8117592</v>
+        <v>137358533.2684936</v>
       </c>
       <c r="D4" t="n">
-        <v>11890.94932340388</v>
+        <v>11720.00568551456</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0649694159244798</v>
+        <v>0.09166007240058316</v>
       </c>
     </row>
     <row r="5">
